--- a/sample_test_cases - 副本.xlsx
+++ b/sample_test_cases - 副本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\cursrCodePj\QA_Test_Logger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C83297F-A95E-4858-9305-5DA200329DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E722B-4384-422B-8118-B8E419BD7C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="7650" windowWidth="28800" windowHeight="7110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>用例ID</t>
   </si>
@@ -40,68 +40,17 @@
     <t>用户登录功能验证</t>
   </si>
   <si>
-    <t>用户登录失败处理</t>
-  </si>
-  <si>
-    <t>密码重置功能</t>
-  </si>
-  <si>
-    <t>用户注册功能</t>
-  </si>
-  <si>
-    <t>用户信息修改</t>
+    <t>输入正确的用户名和密码后，成功登录系统并跳转到首页</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
   <si>
     <t>系统已部署，数据库中存在有效用户</t>
-  </si>
-  <si>
-    <t>系统已部署</t>
-  </si>
-  <si>
-    <t>用户已注册</t>
-  </si>
-  <si>
-    <t>用户已登录</t>
-  </si>
-  <si>
-    <t>输入正确的用户名和密码后，成功登录系统并跳转到首页</t>
-  </si>
-  <si>
-    <t>输入错误的用户名或密码，系统显示错误提示，不允许登录</t>
-  </si>
-  <si>
-    <t>点击忘记密码，输入邮箱后收到重置链接，可成功重置密码</t>
-  </si>
-  <si>
-    <t>填写有效信息后成功注册，并收到确认邮件</t>
-  </si>
-  <si>
-    <t>成功修改个人信息并保存</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>TC001adasdasdasdasdasdasdad</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TC002213123123123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC003sadsadasda</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC0043213123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC005dasdasfasfa</t>
+    <t>TC201adasdasdasdasdasdasdad</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,87 +453,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
